--- a/data/S4Loader_configs/pdt_field_eval_specifications.xlsx
+++ b/data/S4Loader_configs/pdt_field_eval_specifications.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\work\work-flix\data\S4Loader_configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA9DC41-73F7-4EF2-B03B-7528D23371BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6E39FF-E7ED-4FA6-B9D1-D09C8D789D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PDT_Damper" sheetId="1" r:id="rId1"/>
-    <sheet name="PDT_MotorControlCentre" sheetId="3" r:id="rId2"/>
-    <sheet name="PDT_Valves" sheetId="2" r:id="rId3"/>
-    <sheet name="PDT_Level Transmitter Data" sheetId="5" r:id="rId4"/>
+    <sheet name="PDT_Level Transmitter Data" sheetId="5" r:id="rId2"/>
+    <sheet name="PDT_MotorControlCentre" sheetId="3" r:id="rId3"/>
+    <sheet name="PDT_Valves" sheetId="2" r:id="rId4"/>
     <sheet name="PDT_Pressure Transmitter" sheetId="4" r:id="rId5"/>
+    <sheet name="PDT_Flow Transmitter Data" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="Characteristics">[1]Characteristics!$A$3:$N$43</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="246">
   <si>
     <t>s4_type</t>
   </si>
@@ -230,9 +231,6 @@
     <t>regex</t>
   </si>
   <si>
-    <t>(?i)(?&lt;value&gt;\d+\.?\d*)\s?(kg)?</t>
-  </si>
-  <si>
     <t>17.2 kg</t>
   </si>
   <si>
@@ -500,9 +498,6 @@
     <t>Int</t>
   </si>
   <si>
-    <t>(?i)(?&lt;value&gt;\d+)\s?(mm)?</t>
-  </si>
-  <si>
     <t>Coil Voltage</t>
   </si>
   <si>
@@ -554,9 +549,6 @@
     <t>Fault Rating (kA)</t>
   </si>
   <si>
-    <t>(?i)(?&lt;value&gt;\d+\.?\d*)\s?(ka)?</t>
-  </si>
-  <si>
     <t>17.2 kA</t>
   </si>
   <si>
@@ -569,9 +561,6 @@
     <t>Number of Ways</t>
   </si>
   <si>
-    <t>(?i)(?&lt;value&gt;\d+\.?\d*)\s?(a)?</t>
-  </si>
-  <si>
     <t>17.2 A</t>
   </si>
   <si>
@@ -593,9 +582,6 @@
     <t>IP68</t>
   </si>
   <si>
-    <t>(?i)(IP)?\s?(?&lt;value&gt;\d{2})\s?</t>
-  </si>
-  <si>
     <t>lookup</t>
   </si>
   <si>
@@ -750,6 +736,39 @@
   </si>
   <si>
     <t>pdt_field_name</t>
+  </si>
+  <si>
+    <t>Performance Data (Continous Operation)</t>
+  </si>
+  <si>
+    <t>builtin_arg1</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>decimal-with-units</t>
+  </si>
+  <si>
+    <t>kA</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>buitin</t>
+  </si>
+  <si>
+    <t>ip-rating</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>integer-with-units</t>
+  </si>
+  <si>
+    <t>80mm</t>
   </si>
 </sst>
 </file>
@@ -2066,22 +2085,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55:E55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.5703125"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="1025" width="11.5703125"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="1026" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2092,11 +2115,14 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2109,11 +2135,11 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2124,7 +2150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2135,22 +2161,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2164,42 +2190,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2364,61 +2390,64 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>63</v>
       </c>
       <c r="B55" t="s">
         <v>64</v>
       </c>
-      <c r="C55" t="s">
-        <v>65</v>
+      <c r="C55" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D55" t="s">
+        <v>238</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F55" t="s">
         <v>66</v>
       </c>
-      <c r="E55" t="s">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>69</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
@@ -2430,68 +2459,68 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" t="s">
         <v>71</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>72</v>
       </c>
-      <c r="C58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>73</v>
       </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>74</v>
       </c>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
         <v>75</v>
       </c>
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="F61" t="s">
         <v>76</v>
       </c>
-      <c r="E61" t="s">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>78</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
@@ -2503,24 +2532,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>79</v>
       </c>
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>80</v>
-      </c>
       <c r="B64" t="s">
         <v>5</v>
       </c>
@@ -2528,12 +2557,12 @@
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2547,23 +2576,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF15678A-113F-460C-A0E4-0576F3EAD686}">
-  <dimension ref="A1:E64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5649623-1802-4515-857C-5DF26FAF2E6D}">
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="5" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2575,113 +2606,124 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2766,1472 +2808,6 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>172</v>
-      </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E47" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>173</v>
-      </c>
-      <c r="B48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" t="s">
-        <v>174</v>
-      </c>
-      <c r="E48" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>176</v>
-      </c>
-      <c r="B49" t="s">
-        <v>155</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>178</v>
-      </c>
-      <c r="B50" t="s">
-        <v>155</v>
-      </c>
-      <c r="C50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>159</v>
-      </c>
-      <c r="B51" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" t="s">
-        <v>179</v>
-      </c>
-      <c r="E51" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>181</v>
-      </c>
-      <c r="B52" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>183</v>
-      </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>73</v>
-      </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>185</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83423313-6250-487C-800D-7A258F8ACF83}">
-  <dimension ref="A1:E113"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="5" width="26.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5649623-1802-4515-857C-5DF26FAF2E6D}">
-  <dimension ref="A1:E98"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="5" width="26.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
@@ -4289,27 +2865,27 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -4318,9 +2894,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>5</v>
@@ -4329,38 +2905,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>64</v>
@@ -4369,12 +2948,12 @@
         <v>6</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>64</v>
@@ -4383,116 +2962,116 @@
         <v>6</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>219</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -4501,36 +3080,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>5</v>
@@ -4541,73 +3120,73 @@
       <c r="D79" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>72</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="B81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="B82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>74</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="B83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E83" s="2" t="s">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>78</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>5</v>
@@ -4618,159 +3197,159 @@
       <c r="D84" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>79</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="B86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="B93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="B94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="B95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="B96" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="B97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>227</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>228</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>229</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>230</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>231</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>232</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E94:E97">
+  <conditionalFormatting sqref="F94:F97">
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
-      <formula>VLOOKUP($A94,Characteristics,HLOOKUP(E$2,Characteristics,2,0),0)&lt;&gt;1</formula>
+      <formula>VLOOKUP($A94,Characteristics,HLOOKUP(F$2,Characteristics,2,0),0)&lt;&gt;1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>ISEVEN(MATCH($A94,$A$78:$A$97,0))</formula>
@@ -4780,24 +3359,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAEB776-845F-402D-949C-37AF9B4CC451}">
-  <dimension ref="A1:E64"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF15678A-113F-460C-A0E4-0576F3EAD686}">
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="5" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4809,13 +3390,1501 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>181</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83423313-6250-487C-800D-7A258F8ACF83}">
+  <dimension ref="A1:F113"/>
+  <sheetViews>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAEB776-845F-402D-949C-37AF9B4CC451}">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -4825,11 +4894,11 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4840,9 +4909,9 @@
         <v>10</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -4853,36 +4922,36 @@
         <v>10</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4895,44 +4964,44 @@
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5074,12 +5143,12 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>64</v>
@@ -5088,12 +5157,12 @@
         <v>6</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>64</v>
@@ -5102,12 +5171,12 @@
         <v>6</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>5</v>
@@ -5116,12 +5185,12 @@
         <v>10</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>5</v>
@@ -5130,12 +5199,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -5143,40 +5212,43 @@
         <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>64</v>
@@ -5185,12 +5257,12 @@
         <v>6</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>5</v>
@@ -5199,17 +5271,17 @@
         <v>6</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>69</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>5</v>
@@ -5220,73 +5292,73 @@
       <c r="D56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="B58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="B59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="B60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E60" s="2" t="s">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>78</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>5</v>
@@ -5297,12 +5369,548 @@
       <c r="D61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>79</v>
       </c>
+      <c r="B63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1863E4-1492-41A1-8AD9-960660102BB8}">
+  <dimension ref="A1:F76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F47" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>179</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
       <c r="B62" s="2" t="s">
         <v>5</v>
       </c>
@@ -5310,28 +5918,146 @@
         <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>81</v>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>223</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>225</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>226</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data/S4Loader_configs/pdt_field_eval_specifications.xlsx
+++ b/data/S4Loader_configs/pdt_field_eval_specifications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\work\work-flix\data\S4Loader_configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6E39FF-E7ED-4FA6-B9D1-D09C8D789D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CCC91C-E866-4E81-8A6C-80416CC0E33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PDT_Damper" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,24 @@
   <definedNames>
     <definedName name="Characteristics">[1]Characteristics!$A$3:$N$43</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="247">
   <si>
     <t>s4_type</t>
   </si>
@@ -769,6 +781,9 @@
   </si>
   <si>
     <t>80mm</t>
+  </si>
+  <si>
+    <t>asset-status</t>
   </si>
 </sst>
 </file>
@@ -4848,8 +4863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAEB776-845F-402D-949C-37AF9B4CC451}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4919,9 +4934,11 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5415,7 +5432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1863E4-1492-41A1-8AD9-960660102BB8}">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>

--- a/data/S4Loader_configs/pdt_field_eval_specifications.xlsx
+++ b/data/S4Loader_configs/pdt_field_eval_specifications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\work\work-flix\data\S4Loader_configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CCC91C-E866-4E81-8A6C-80416CC0E33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C691647-7E9F-4D6A-B314-D9F07FF16E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="673" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PDT_Damper" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="PDT_MotorControlCentre" sheetId="3" r:id="rId3"/>
     <sheet name="PDT_Valves" sheetId="2" r:id="rId4"/>
     <sheet name="PDT_Pressure Transmitter" sheetId="4" r:id="rId5"/>
-    <sheet name="PDT_Flow Transmitter Data" sheetId="6" r:id="rId6"/>
+    <sheet name="PDT_Tank Data" sheetId="7" r:id="rId6"/>
+    <sheet name="PDT_Flow Transmitter Data" sheetId="6" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="Characteristics">[1]Characteristics!$A$3:$N$43</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="276">
   <si>
     <t>s4_type</t>
   </si>
@@ -784,6 +785,93 @@
   </si>
   <si>
     <t>asset-status</t>
+  </si>
+  <si>
+    <t>Column Material</t>
+  </si>
+  <si>
+    <t>Floor Material</t>
+  </si>
+  <si>
+    <t>Reservoir Covering</t>
+  </si>
+  <si>
+    <t>Roof Material</t>
+  </si>
+  <si>
+    <t>Tank Construction</t>
+  </si>
+  <si>
+    <t>Tank Covering</t>
+  </si>
+  <si>
+    <t>Tank Level</t>
+  </si>
+  <si>
+    <t>Wall Material</t>
+  </si>
+  <si>
+    <t>Dimensions &amp; Weight Data</t>
+  </si>
+  <si>
+    <t>Bottom Water Level (mAOD)</t>
+  </si>
+  <si>
+    <t>Top Water Level (mAOD)</t>
+  </si>
+  <si>
+    <t>Tank Shape</t>
+  </si>
+  <si>
+    <t>Capacity (m3)</t>
+  </si>
+  <si>
+    <t>Diameter (mm)</t>
+  </si>
+  <si>
+    <t>Side Depth (mm)</t>
+  </si>
+  <si>
+    <t>Side Depth Max (mm)</t>
+  </si>
+  <si>
+    <t>Side Depth Min (mm)</t>
+  </si>
+  <si>
+    <t>Top Surface Area (m2)</t>
+  </si>
+  <si>
+    <t>Centre Depth (mm)</t>
+  </si>
+  <si>
+    <t>Length (mm)</t>
+  </si>
+  <si>
+    <t>Major Axis (mm)</t>
+  </si>
+  <si>
+    <t>Minor Axis (mm)</t>
+  </si>
+  <si>
+    <t>Content Type</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>50.4 m3</t>
+  </si>
+  <si>
+    <t>800 mm</t>
+  </si>
+  <si>
+    <t>35.4 m2</t>
+  </si>
+  <si>
+    <t>4000 mm</t>
   </si>
 </sst>
 </file>
@@ -4863,8 +4951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAEB776-845F-402D-949C-37AF9B4CC451}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5429,11 +5517,754 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDA521A-C6B9-4F79-9680-60EC00494069}">
+  <dimension ref="A1:F77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="6" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>248</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>249</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>250</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>251</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>252</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>253</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>254</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>258</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>259</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>260</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>261</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>262</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>263</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>264</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>266</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>269</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1863E4-1492-41A1-8AD9-960660102BB8}">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61:F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/data/S4Loader_configs/pdt_field_eval_specifications.xlsx
+++ b/data/S4Loader_configs/pdt_field_eval_specifications.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\work\work-flix\data\S4Loader_configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C691647-7E9F-4D6A-B314-D9F07FF16E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB44CAD6-299F-4C2D-8776-D3A21C07D36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="673" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="673" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PDT_Damper" sheetId="1" r:id="rId1"/>
-    <sheet name="PDT_Level Transmitter Data" sheetId="5" r:id="rId2"/>
-    <sheet name="PDT_MotorControlCentre" sheetId="3" r:id="rId3"/>
-    <sheet name="PDT_Valves" sheetId="2" r:id="rId4"/>
+    <sheet name="PDT_Flow Transmitter Data" sheetId="6" r:id="rId2"/>
+    <sheet name="PDT_Level Transmitter Data" sheetId="5" r:id="rId3"/>
+    <sheet name="PDT_MotorControlCentre" sheetId="3" r:id="rId4"/>
     <sheet name="PDT_Pressure Transmitter" sheetId="4" r:id="rId5"/>
     <sheet name="PDT_Tank Data" sheetId="7" r:id="rId6"/>
-    <sheet name="PDT_Flow Transmitter Data" sheetId="6" r:id="rId7"/>
+    <sheet name="PDT_Valves" sheetId="2" r:id="rId7"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="274">
   <si>
     <t>s4_type</t>
   </si>
@@ -541,9 +541,6 @@
     <t>Process Medium</t>
   </si>
   <si>
-    <t>VALV_MEDIA_TYPE</t>
-  </si>
-  <si>
     <t>Trace Heating</t>
   </si>
   <si>
@@ -743,9 +740,6 @@
   </si>
   <si>
     <t>LSTN_RANGE_UNITS</t>
-  </si>
-  <si>
-    <t>PSTN_RANGE_UNITS</t>
   </si>
   <si>
     <t>pdt_field_name</t>
@@ -2207,7 +2201,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2219,7 +2213,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -2534,10 +2528,10 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F55" t="s">
         <v>66</v>
@@ -2679,11 +2673,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5649623-1802-4515-857C-5DF26FAF2E6D}">
-  <dimension ref="A1:F98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1863E4-1492-41A1-8AD9-960660102BB8}">
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61:F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2697,7 +2691,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2709,7 +2703,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -2728,6 +2722,9 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2740,6 +2737,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2752,6 +2750,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2760,6 +2759,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2768,6 +2768,7 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2776,6 +2777,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2790,6 +2792,7 @@
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2911,6 +2914,651 @@
         <v>40</v>
       </c>
     </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F47" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>222</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>223</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5649623-1802-4515-857C-5DF26FAF2E6D}">
+  <dimension ref="A1:F98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
@@ -2968,17 +3616,17 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2988,7 +3636,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -2999,7 +3647,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>5</v>
@@ -3010,7 +3658,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>154</v>
@@ -3019,30 +3667,30 @@
         <v>65</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>64</v>
@@ -3051,12 +3699,12 @@
         <v>6</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>64</v>
@@ -3065,116 +3713,116 @@
         <v>6</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -3185,12 +3833,12 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>5</v>
@@ -3199,15 +3847,15 @@
         <v>6</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -3339,32 +3987,32 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>5</v>
@@ -3378,7 +4026,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>5</v>
@@ -3390,12 +4038,12 @@
         <v>69</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>5</v>
@@ -3407,12 +4055,12 @@
         <v>69</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>5</v>
@@ -3424,12 +4072,12 @@
         <v>69</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>5</v>
@@ -3441,12 +4089,12 @@
         <v>69</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3462,7 +4110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF15678A-113F-460C-A0E4-0576F3EAD686}">
   <dimension ref="A1:F64"/>
   <sheetViews>
@@ -3481,7 +4129,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3493,7 +4141,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -3758,10 +4406,10 @@
         <v>6</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F45" t="s">
         <v>66</v>
@@ -3769,29 +4417,29 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B48" t="s">
         <v>64</v>
@@ -3800,18 +4448,18 @@
         <v>6</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s">
         <v>154</v>
@@ -3820,12 +4468,12 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B50" t="s">
         <v>154</v>
@@ -3834,7 +4482,7 @@
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3848,18 +4496,18 @@
         <v>6</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="F51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B52" t="s">
         <v>64</v>
@@ -3868,21 +4516,21 @@
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
         <v>179</v>
-      </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4012,7 +4660,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>5</v>
@@ -4029,12 +4677,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83423313-6250-487C-800D-7A258F8ACF83}">
-  <dimension ref="A1:F113"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAEB776-845F-402D-949C-37AF9B4CC451}">
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4048,7 +4696,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4060,886 +4708,533 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>185</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+      <c r="C50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>188</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>189</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>67</v>
       </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>68</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="B56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>70</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="C57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>72</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="1" t="s">
+      <c r="B58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>73</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" s="1" t="s">
+      <c r="B59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>74</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="1" t="s">
+      <c r="B60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F60" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>77</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="1" t="s">
+      <c r="B61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>78</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="1" t="s">
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>79</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="1" t="s">
+      <c r="B63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>80</v>
-      </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4947,12 +5242,755 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAEB776-845F-402D-949C-37AF9B4CC451}">
-  <dimension ref="A1:F64"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDA521A-C6B9-4F79-9680-60EC00494069}">
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F8"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="6" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>245</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>246</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>250</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>252</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>256</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>257</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>258</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>259</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>260</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>261</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>262</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>263</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>264</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>267</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83423313-6250-487C-800D-7A258F8ACF83}">
+  <dimension ref="A1:F113"/>
+  <sheetViews>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4966,7 +6004,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4978,1934 +6016,884 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
+      <c r="A14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>185</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>186</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>187</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>188</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>170</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>189</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>190</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDA521A-C6B9-4F79-9680-60EC00494069}">
-  <dimension ref="A1:F77"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="6" width="26.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>247</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>248</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>249</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>250</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>251</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>252</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>253</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>254</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>258</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>259</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>260</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>261</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>262</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>263</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>264</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>265</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>266</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>80</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>269</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1863E4-1492-41A1-8AD9-960660102BB8}">
-  <dimension ref="A1:F76"/>
-  <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61:F65"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>192</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F47" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>185</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>186</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>187</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>177</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>179</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>170</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>223</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>224</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>225</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>226</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>69</v>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/data/S4Loader_configs/pdt_field_eval_specifications.xlsx
+++ b/data/S4Loader_configs/pdt_field_eval_specifications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\work\work-flix\data\S4Loader_configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB44CAD6-299F-4C2D-8776-D3A21C07D36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7934199-92EB-41F9-9307-409A811383FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="673" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="754" firstSheet="5" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PDT_Damper" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,18 @@
     <sheet name="PDT_Pressure Transmitter" sheetId="4" r:id="rId5"/>
     <sheet name="PDT_Tank Data" sheetId="7" r:id="rId6"/>
     <sheet name="PDT_Valves" sheetId="2" r:id="rId7"/>
+    <sheet name="PDT_Analyser" sheetId="8" r:id="rId8"/>
+    <sheet name="PDT_Kiosk" sheetId="9" r:id="rId9"/>
+    <sheet name="PDT_Motor Starter" sheetId="10" r:id="rId10"/>
+    <sheet name="PDT_Pump" sheetId="11" r:id="rId11"/>
+    <sheet name="PDT_Well" sheetId="12" r:id="rId12"/>
+    <sheet name="PDT_Actuator Data" sheetId="13" r:id="rId13"/>
+    <sheet name="PDT_Switchgear" sheetId="14" r:id="rId14"/>
+    <sheet name="PDT_Controller" sheetId="15" r:id="rId15"/>
+    <sheet name="PDT_UPS" sheetId="16" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="Characteristics">[1]Characteristics!$A$3:$N$43</definedName>
@@ -44,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2256" uniqueCount="472">
   <si>
     <t>s4_type</t>
   </si>
@@ -866,6 +875,600 @@
   </si>
   <si>
     <t>4000 mm</t>
+  </si>
+  <si>
+    <t>asset-type</t>
+  </si>
+  <si>
+    <t>Sensor Body Material</t>
+  </si>
+  <si>
+    <t>Cable Length</t>
+  </si>
+  <si>
+    <t>Cable Type</t>
+  </si>
+  <si>
+    <t>Front Thread</t>
+  </si>
+  <si>
+    <t>Submergence Shield</t>
+  </si>
+  <si>
+    <t>Foam Faced</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>Face Diameter</t>
+  </si>
+  <si>
+    <t>Mounting Connection</t>
+  </si>
+  <si>
+    <t>Characteristic</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Beam Angle</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>Maximum Separation</t>
+  </si>
+  <si>
+    <t>Upper Limit Measuring Range (NTU)</t>
+  </si>
+  <si>
+    <t>Lower Limit Measuring Range (NTU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature Compensation </t>
+  </si>
+  <si>
+    <t>Power Supply Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Supply Voltage </t>
+  </si>
+  <si>
+    <t>Power Supply Fuse Rating</t>
+  </si>
+  <si>
+    <t>Power Supply Phase</t>
+  </si>
+  <si>
+    <t>Power Supply Frequency</t>
+  </si>
+  <si>
+    <t>Number of Poles</t>
+  </si>
+  <si>
+    <t>Enclosure Rating</t>
+  </si>
+  <si>
+    <t>Intrinsically Safe</t>
+  </si>
+  <si>
+    <t>SIL Rating</t>
+  </si>
+  <si>
+    <t>Hygiene Approval</t>
+  </si>
+  <si>
+    <t>Relay Outputs</t>
+  </si>
+  <si>
+    <t>Relay Outputs - No of</t>
+  </si>
+  <si>
+    <t>Relay Outputs Type</t>
+  </si>
+  <si>
+    <t>Controls</t>
+  </si>
+  <si>
+    <t>Analogue Output</t>
+  </si>
+  <si>
+    <t>Analogue Outputs - No of:</t>
+  </si>
+  <si>
+    <t>Analogue Output Type</t>
+  </si>
+  <si>
+    <t>Digital Output</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>On-board Programming</t>
+  </si>
+  <si>
+    <t>PC Programming</t>
+  </si>
+  <si>
+    <t>Programme Security</t>
+  </si>
+  <si>
+    <t>Programmed Data Integrity</t>
+  </si>
+  <si>
+    <t>Modem</t>
+  </si>
+  <si>
+    <t>Communication Protocol</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Data Logging</t>
+  </si>
+  <si>
+    <t>Alarm Dial Out</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of unit </t>
+  </si>
+  <si>
+    <t>Manufacturers Code</t>
+  </si>
+  <si>
+    <t>Calibrated Range of Instrument</t>
+  </si>
+  <si>
+    <t>Filter Particle Size (um)</t>
+  </si>
+  <si>
+    <t>Cat Flap Available</t>
+  </si>
+  <si>
+    <t>Base Height (mm)</t>
+  </si>
+  <si>
+    <t>Depth (mm)</t>
+  </si>
+  <si>
+    <t>Height (mm)</t>
+  </si>
+  <si>
+    <t>Width (mm)</t>
+  </si>
+  <si>
+    <t>Input Current (A)</t>
+  </si>
+  <si>
+    <t>Input Voltage</t>
+  </si>
+  <si>
+    <t>Input Voltage Units</t>
+  </si>
+  <si>
+    <t>Mounting Type</t>
+  </si>
+  <si>
+    <t>Rated Power (kW)</t>
+  </si>
+  <si>
+    <t>Diaphragm Material</t>
+  </si>
+  <si>
+    <t>Base material</t>
+  </si>
+  <si>
+    <t>Body/casing material</t>
+  </si>
+  <si>
+    <t>Connection configuration</t>
+  </si>
+  <si>
+    <t>Flange type and designation</t>
+  </si>
+  <si>
+    <t>Head/seal housing material</t>
+  </si>
+  <si>
+    <t>Diffuser/stage casing material</t>
+  </si>
+  <si>
+    <t>Shroud/sleeve material</t>
+  </si>
+  <si>
+    <t>Diffuser/stage casing wear ring material (if applicable)</t>
+  </si>
+  <si>
+    <t>Impeller type</t>
+  </si>
+  <si>
+    <t>Impeller material</t>
+  </si>
+  <si>
+    <t>Direction of rotation (viewed from non-drive end)</t>
+  </si>
+  <si>
+    <t>Impeller wear ring material (if applicable)</t>
+  </si>
+  <si>
+    <t>Shaft material</t>
+  </si>
+  <si>
+    <t>Shaft sleeve material (if applicable)</t>
+  </si>
+  <si>
+    <t>Mechanical seal type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal details </t>
+  </si>
+  <si>
+    <t>Seal/seat material(s)</t>
+  </si>
+  <si>
+    <t>Bearing/bushing material</t>
+  </si>
+  <si>
+    <t>Pump and baseplate external coating specification</t>
+  </si>
+  <si>
+    <t>Hose External Diameter (mm)</t>
+  </si>
+  <si>
+    <t>Hose Internal Diameter (mm)</t>
+  </si>
+  <si>
+    <t>Hose Length (mm)</t>
+  </si>
+  <si>
+    <t>Inlet Size (mm)</t>
+  </si>
+  <si>
+    <t>Outlet Size (mm)</t>
+  </si>
+  <si>
+    <t>Overall length</t>
+  </si>
+  <si>
+    <t>Overall width</t>
+  </si>
+  <si>
+    <t>Overall height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shipping weight </t>
+  </si>
+  <si>
+    <t>Access clearance top</t>
+  </si>
+  <si>
+    <t>Access clearance bottom</t>
+  </si>
+  <si>
+    <t>Access clearance left</t>
+  </si>
+  <si>
+    <t>Access clearance right</t>
+  </si>
+  <si>
+    <t>Access clearance front</t>
+  </si>
+  <si>
+    <t>Access clearance rear</t>
+  </si>
+  <si>
+    <t>Motor Type</t>
+  </si>
+  <si>
+    <t>Insulation Class (°c)</t>
+  </si>
+  <si>
+    <t>Installed Design Head (m)</t>
+  </si>
+  <si>
+    <t>Lubricant Type</t>
+  </si>
+  <si>
+    <t>Lubricant Volume (l)</t>
+  </si>
+  <si>
+    <t>Rated Pressure (bar)</t>
+  </si>
+  <si>
+    <t>Rated Speed (RPM)</t>
+  </si>
+  <si>
+    <t>Flow (l/s)</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>NPSHR</t>
+  </si>
+  <si>
+    <t>Lower limit rotational speed</t>
+  </si>
+  <si>
+    <t>Upper limit rotational speed</t>
+  </si>
+  <si>
+    <t>Upper limit operating pressure</t>
+  </si>
+  <si>
+    <t>Maximum fluid temperature</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Performance curve number</t>
+  </si>
+  <si>
+    <t>Pumped medium</t>
+  </si>
+  <si>
+    <t>Static head at duty point</t>
+  </si>
+  <si>
+    <t>Dynamic head (pumping station) at duty point</t>
+  </si>
+  <si>
+    <t>Dynamic head (rising main) at duty point</t>
+  </si>
+  <si>
+    <t>Flow rate at duty point</t>
+  </si>
+  <si>
+    <t>Operating speed at duty point (or speed range, if appropriate)</t>
+  </si>
+  <si>
+    <t>Pump unit (i.e. including motor) capable of discharging into an empty main</t>
+  </si>
+  <si>
+    <t>NPSHA at duty point</t>
+  </si>
+  <si>
+    <t>NPSHR at duty point</t>
+  </si>
+  <si>
+    <t>Efficiency at duty point</t>
+  </si>
+  <si>
+    <t>Mode of operation</t>
+  </si>
+  <si>
+    <t>Wiring Diagram Number</t>
+  </si>
+  <si>
+    <t>Type of Works</t>
+  </si>
+  <si>
+    <t>Circuit Breaker Rating (A)</t>
+  </si>
+  <si>
+    <t>Cooling Type</t>
+  </si>
+  <si>
+    <t>Current Transformer Ratio</t>
+  </si>
+  <si>
+    <t>Duration of Operation (min)</t>
+  </si>
+  <si>
+    <t>Manufacturing Tolerance</t>
+  </si>
+  <si>
+    <t>Protection Relay Type</t>
+  </si>
+  <si>
+    <t>Resistance at 20 °c (Ohm)</t>
+  </si>
+  <si>
+    <t>Resistor Grid Material</t>
+  </si>
+  <si>
+    <t>System Voltage</t>
+  </si>
+  <si>
+    <t>System Voltage Units</t>
+  </si>
+  <si>
+    <t>Tallus Unit</t>
+  </si>
+  <si>
+    <t>Instrumentation and Control  Data</t>
+  </si>
+  <si>
+    <t>Instrument Power (W)</t>
+  </si>
+  <si>
+    <t>PLC Remote Intervention</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Stand Alone Assembly</t>
+  </si>
+  <si>
+    <t>Stand Alone Design Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction type </t>
+  </si>
+  <si>
+    <t>Form of Separation</t>
+  </si>
+  <si>
+    <t>Material of Construction</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Colour</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Accessibility performance</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Constituents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shipping split Weights </t>
+  </si>
+  <si>
+    <t>Section lifting method</t>
+  </si>
+  <si>
+    <t>Rated Input Voltage (V)</t>
+  </si>
+  <si>
+    <t>Battery Type</t>
+  </si>
+  <si>
+    <t>Battery rating</t>
+  </si>
+  <si>
+    <t>Charger current</t>
+  </si>
+  <si>
+    <t>Recharge time</t>
+  </si>
+  <si>
+    <t>Inbuilt batteries</t>
+  </si>
+  <si>
+    <t>No. of batteries</t>
+  </si>
+  <si>
+    <t>Rated power (kvar)</t>
+  </si>
+  <si>
+    <t>Maintenance Bypass required</t>
+  </si>
+  <si>
+    <t>Operating temperature</t>
+  </si>
+  <si>
+    <t>Battery storage temperature</t>
+  </si>
+  <si>
+    <t>Supply Phase</t>
+  </si>
+  <si>
+    <t>Input power factor</t>
+  </si>
+  <si>
+    <t>Input frequency</t>
+  </si>
+  <si>
+    <t>Input frequency tolerance</t>
+  </si>
+  <si>
+    <t>Input current harmonic distortion</t>
+  </si>
+  <si>
+    <t>Output power factor</t>
+  </si>
+  <si>
+    <t>Output frequency</t>
+  </si>
+  <si>
+    <t>Output frequency tolerance</t>
+  </si>
+  <si>
+    <t>Maximum permissible voltage</t>
+  </si>
+  <si>
+    <t>Continuous overcurrent capacity</t>
+  </si>
+  <si>
+    <t>Utilization Category</t>
+  </si>
+  <si>
+    <t>Supply characteristics</t>
+  </si>
+  <si>
+    <t>Protection Device Rating</t>
+  </si>
+  <si>
+    <t>Protection Device Type</t>
+  </si>
+  <si>
+    <t>Indicative Field Cabling Size</t>
+  </si>
+  <si>
+    <t>UPS HMI device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of communications </t>
+  </si>
+  <si>
+    <t>Third Party Certification</t>
+  </si>
+  <si>
+    <t>Power metering section required</t>
+  </si>
+  <si>
+    <t>Current transformers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase monitoring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surge protection </t>
+  </si>
+  <si>
+    <t>Upstream Protection Device Characteristics</t>
+  </si>
+  <si>
+    <t>Downstream Protection Devices Characteristics</t>
+  </si>
+  <si>
+    <t>Other Protection features</t>
+  </si>
+  <si>
+    <t>Interlocking Requirements</t>
+  </si>
+  <si>
+    <t>Common Control / Telemetry Signals required</t>
+  </si>
+  <si>
+    <t>Code performance</t>
+  </si>
+  <si>
+    <t>UPS - Software version</t>
+  </si>
+  <si>
+    <t>UPS - Firmware version</t>
+  </si>
+  <si>
+    <t>UPS - Operating system</t>
+  </si>
+  <si>
+    <t>UPS - Application</t>
   </si>
 </sst>
 </file>
@@ -2184,8 +2787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55:E55"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2240,22 +2843,28 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2672,12 +3281,4334 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FB0F60-B83F-4E76-B26E-194E958C7A76}">
+  <dimension ref="A1:F68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:F66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="6" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F61CEB-AB5B-4F51-9EBB-9536FC4C6E23}">
+  <dimension ref="A1:F122"/>
+  <sheetViews>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103:F110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="6" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>68</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>70</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>72</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>73</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>74</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>77</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>78</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>79</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABF25EA-F469-474F-BA75-787DE6D02CF6}">
+  <dimension ref="A1:F68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60:F67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="6" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C9FCF8-1EE0-4C5F-A4FE-A4F88B77C9AC}">
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:F62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="6" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7A2CD2-52DF-4915-AF97-6E9BF667A8C0}">
+  <dimension ref="A1:F79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70:F77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="6" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C6C4EE-79BB-408F-A983-23E90732571C}">
+  <dimension ref="A1:F71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63:F70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="6" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1458EA-2281-4445-8D96-9A0C92B4E93C}">
+  <dimension ref="A1:F133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120:F127"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="6" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>68</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>70</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>72</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>73</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>74</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>77</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>78</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>79</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>471</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1863E4-1492-41A1-8AD9-960660102BB8}">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61:F65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2734,9 +7665,11 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2747,9 +7680,11 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3330,8 +8265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5649623-1802-4515-857C-5DF26FAF2E6D}">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3385,9 +8320,11 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3397,9 +8334,11 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -4114,8 +9053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF15678A-113F-460C-A0E4-0576F3EAD686}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4168,22 +9107,28 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -4681,8 +9626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAEB776-845F-402D-949C-37AF9B4CC451}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4739,9 +9684,11 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5246,8 +10193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDA521A-C6B9-4F79-9680-60EC00494069}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5303,9 +10250,11 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
@@ -5989,8 +10938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83423313-6250-487C-800D-7A258F8ACF83}">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88:F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6043,26 +10992,30 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -6899,4 +11852,1334 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5AB105-655B-4985-BD88-579E9F7E3380}">
+  <dimension ref="A1:F121"/>
+  <sheetViews>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107:F114"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="6" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>321</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>70</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>322</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>73</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>74</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>77</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>323</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCA0D38-0D36-4D7E-8988-F5FCE329588B}">
+  <dimension ref="A1:F61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:F60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="6" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>327</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>328</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>329</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>330</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>